--- a/Data/Goodreads_Comics_Data/Masterdata_ongoing.xlsx
+++ b/Data/Goodreads_Comics_Data/Masterdata_ongoing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/odessialiu/Projects/Modernist_Remediation_ReMedia/Data/Goodreads_Comics_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8A5BE4-B84C-1E48-A868-9D9646A1032E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B804EE-D1DA-D348-A0AB-1B147136B7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{B7EAC919-767D-1F48-BE74-AEB8146C2F23}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{B7EAC919-767D-1F48-BE74-AEB8146C2F23}"/>
   </bookViews>
   <sheets>
     <sheet name="BOOK_SHEET" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>book_id</t>
   </si>
@@ -51,15 +51,6 @@
     <t>goodreads_id</t>
   </si>
   <si>
-    <t>title_primary</t>
-  </si>
-  <si>
-    <t>title_secondary</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
     <t>publication_date</t>
   </si>
   <si>
@@ -115,6 +106,12 @@
   </si>
   <si>
     <t>publisher_original</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>subtitle</t>
   </si>
 </sst>
 </file>
@@ -469,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53A8A5E-FE1D-9A42-8492-85B8DD60DFBA}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,11 +479,11 @@
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,25 +494,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -543,28 +537,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -587,10 +581,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -613,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -625,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A6D418-5C08-D14A-9281-F2F400582D8E}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F2" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,22 +636,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
